--- a/filtering_connectome/human/net_new.xlsx
+++ b/filtering_connectome/human/net_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Sub.Network</t>
   </si>
@@ -32,13 +32,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>18, 38, 52, 72, 75, 24, 27, 33, 34, 37, 45, 65, 66, 23, 41, 25, 67, 71, 68, 1, 5, 6, 7, 9, 14, 20, 22, 29, 30, 31</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Left caudalanteriorcingulate, Left posteriorcingulate, Right caudalanteriorcingulate, Right posteriorcingulate, Right rostralanteriorcingulate, Left inferiortemporal, Left lateralorbitofrontal, Left parsopercularis, Left parsorbitalis, Left postcentral, Left superiortemporal, Right parahippocampal, Right paracentral, Left inferiorparietal, Left rostralanteriorcingulate, Left isthmuscingulate, Right parsopercularis, Right postcentral, Right parsorbitalis, Left Cerebellum-Cortex, Left Pallidum, Left Hippocampus, Left Amygdala, Right Cerebellum-Cortex, Right Hippocampus, Left cuneus, Left fusiform, Left medialorbitofrontal, Left middletemporal, Left parahippocampal</t>
+    <t>18, 38, 52, 66, 72, 75, 24, 27, 33, 34, 37, 45, 65, 68, 23, 41, 25, 67, 71, 1, 5, 6, 7, 9, 14, 20, 22, 29, 30, 31</t>
   </si>
   <si>
-    <t>10.4151776692735</t>
+    <t>59, 57</t>
+  </si>
+  <si>
+    <t>Left caudalanteriorcingulate, Left posteriorcingulate, Right caudalanteriorcingulate, Right paracentral, Right posteriorcingulate, Right rostralanteriorcingulate, Left inferiortemporal, Left lateralorbitofrontal, Left parsopercularis, Left parsorbitalis, Left postcentral, Left superiortemporal, Right parahippocampal, Right parsorbitalis, Left inferiorparietal, Left rostralanteriorcingulate, Left isthmuscingulate, Right parsopercularis, Right postcentral, Left Cerebellum-Cortex, Left Pallidum, Left Hippocampus, Left Amygdala, Right Cerebellum-Cortex, Right Hippocampus, Left cuneus, Left fusiform, Left medialorbitofrontal, Left middletemporal, Left parahippocampal</t>
+  </si>
+  <si>
+    <t>Right isthmuscingulate, Right inferiorparietal</t>
+  </si>
+  <si>
+    <t>10.9243850276628</t>
+  </si>
+  <si>
+    <t>0.0389598348666482</t>
   </si>
 </sst>
 </file>
@@ -115,16 +127,36 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
